--- a/data/trans_orig/P20D1_R_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P20D1_R_2023-Clase-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3186</v>
+        <v>3437</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06705826990626745</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2288328551639879</v>
+        <v>0.2468235521195758</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3156</v>
+        <v>3172</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.356968714840203</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8350803469974221</v>
+        <v>0.8395021432720992</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -783,19 +783,19 @@
         <v>2283</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>509</v>
+        <v>591</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5514</v>
+        <v>5560</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.128946832279446</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02875492370616539</v>
+        <v>0.03337929976247797</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3114393320404371</v>
+        <v>0.3140331286821264</v>
       </c>
     </row>
     <row r="5">
@@ -812,7 +812,7 @@
         <v>12991</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10739</v>
+        <v>10488</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>13925</v>
@@ -821,7 +821,7 @@
         <v>0.9329417300937325</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7711671448360109</v>
+        <v>0.753176447880423</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>2430</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>3779</v>
@@ -842,7 +842,7 @@
         <v>0.643031285159797</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1652619467516783</v>
+        <v>0.1603682262893877</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -854,19 +854,19 @@
         <v>15421</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12190</v>
+        <v>12144</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>17195</v>
+        <v>17113</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.871053167720554</v>
+        <v>0.8710531677205537</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6885606679595631</v>
+        <v>0.6859668713178736</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9712450762938345</v>
+        <v>0.966620700237522</v>
       </c>
     </row>
     <row r="6">
@@ -971,19 +971,19 @@
         <v>6378</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3476</v>
+        <v>3553</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8519</v>
+        <v>8560</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6508322014191154</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3547000056039351</v>
+        <v>0.36255779564235</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8693438607008498</v>
+        <v>0.8735348269601656</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -992,19 +992,19 @@
         <v>6378</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3140</v>
+        <v>3254</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10769</v>
+        <v>10941</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3641104186504512</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1792860682491893</v>
+        <v>0.1857553848290556</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6148075364273983</v>
+        <v>0.6246276441562337</v>
       </c>
     </row>
     <row r="8">
@@ -1034,19 +1034,19 @@
         <v>3421</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1280</v>
+        <v>1239</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6323</v>
+        <v>6246</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3491677985808846</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1306561392991501</v>
+        <v>0.1264651730398343</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6452999943960649</v>
+        <v>0.63744220435765</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -1055,19 +1055,19 @@
         <v>11138</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6747</v>
+        <v>6575</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14376</v>
+        <v>14262</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6358895813495488</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3851924635726015</v>
+        <v>0.3753723558437665</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8207139317508108</v>
+        <v>0.8142446151709446</v>
       </c>
     </row>
     <row r="9">
@@ -1159,19 +1159,19 @@
         <v>3009</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7655</v>
+        <v>7762</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1703825137849371</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02911917736211482</v>
+        <v>0.02862046257820942</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4335014026849833</v>
+        <v>0.4395461269225471</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1180,19 +1180,19 @@
         <v>2881</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1088</v>
+        <v>798</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4463</v>
+        <v>4711</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6114720320217095</v>
+        <v>0.6114720320217094</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2309905914081032</v>
+        <v>0.1693512282412269</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9473908589452031</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1201,19 +1201,19 @@
         <v>5889</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2617</v>
+        <v>2614</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10622</v>
+        <v>11002</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2632741194046484</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1169910318819985</v>
+        <v>0.1168635169251625</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4748492390172137</v>
+        <v>0.4918132208424776</v>
       </c>
     </row>
     <row r="11">
@@ -1230,19 +1230,19 @@
         <v>14650</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10004</v>
+        <v>9897</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17145</v>
+        <v>17154</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8296174862150628</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5664985973150166</v>
+        <v>0.5604538730774514</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.970880822637885</v>
+        <v>0.9713795374217906</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1251,19 +1251,19 @@
         <v>1830</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>410</v>
+        <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3649</v>
+        <v>3913</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3885279679782905</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0870643699845154</v>
+        <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7745748337738697</v>
+        <v>0.8306487717587729</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -1272,19 +1272,19 @@
         <v>16481</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11748</v>
+        <v>11368</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19753</v>
+        <v>19756</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7367258805953515</v>
+        <v>0.7367258805953516</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5251507609827865</v>
+        <v>0.5081867791575224</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8830089681180014</v>
+        <v>0.8831364830748375</v>
       </c>
     </row>
     <row r="12">
@@ -1376,19 +1376,19 @@
         <v>3102</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>897</v>
+        <v>1164</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6539</v>
+        <v>7269</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2148960910914303</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06216384483388952</v>
+        <v>0.08065552159745987</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4529737779975138</v>
+        <v>0.5035523798352174</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1397,19 +1397,19 @@
         <v>4916</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2326</v>
+        <v>2452</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7465</v>
+        <v>7535</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4666719613543496</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2208160772686317</v>
+        <v>0.2327529708351377</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7086952493230745</v>
+        <v>0.7152916574982522</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1418,19 +1418,19 @@
         <v>8018</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4304</v>
+        <v>4295</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12363</v>
+        <v>12470</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3211176934285143</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1723699087925633</v>
+        <v>0.172032818337744</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.495120677832483</v>
+        <v>0.4994135548394678</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>11333</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7896</v>
+        <v>7166</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13538</v>
+        <v>13271</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7851039089085696</v>
+        <v>0.7851039089085697</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5470262220024866</v>
+        <v>0.4964476201647833</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9378361551661104</v>
+        <v>0.9193444784025401</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -1468,19 +1468,19 @@
         <v>5618</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3069</v>
+        <v>2999</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8208</v>
+        <v>8082</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5333280386456504</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2913047506769256</v>
+        <v>0.2847083425017481</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7791839227313683</v>
+        <v>0.7672470291648632</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>24</v>
@@ -1489,19 +1489,19 @@
         <v>16951</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12606</v>
+        <v>12499</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20665</v>
+        <v>20674</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6788823065714856</v>
+        <v>0.6788823065714857</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5048793221675174</v>
+        <v>0.5005864451605322</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8276300912074367</v>
+        <v>0.8279671816622557</v>
       </c>
     </row>
     <row r="15">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5624</v>
+        <v>5388</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1207373683240958</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4028819002777389</v>
+        <v>0.3859672746032825</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1614,19 +1614,19 @@
         <v>5741</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2949</v>
+        <v>2880</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8709</v>
+        <v>8905</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3695677578209697</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1898592250095646</v>
+        <v>0.1854184824131572</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5605757288325645</v>
+        <v>0.5732122566515039</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -1635,19 +1635,19 @@
         <v>7427</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3950</v>
+        <v>3814</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11552</v>
+        <v>11937</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2517965988054174</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1339171623352861</v>
+        <v>0.1293171421727981</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3916607079741585</v>
+        <v>0.4047291323891534</v>
       </c>
     </row>
     <row r="17">
@@ -1664,7 +1664,7 @@
         <v>12275</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8336</v>
+        <v>8572</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>13960</v>
@@ -1673,7 +1673,7 @@
         <v>0.8792626316759041</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5971180997222604</v>
+        <v>0.6140327253967177</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1685,19 +1685,19 @@
         <v>9794</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6826</v>
+        <v>6630</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12586</v>
+        <v>12655</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6304322421790303</v>
+        <v>0.6304322421790304</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4394242711674355</v>
+        <v>0.4267877433484962</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8101407749904351</v>
+        <v>0.8145815175868423</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>28</v>
@@ -1706,19 +1706,19 @@
         <v>22068</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17943</v>
+        <v>17558</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25545</v>
+        <v>25681</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7482034011945825</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6083392920258415</v>
+        <v>0.5952708676108476</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8660828376647138</v>
+        <v>0.870682857827202</v>
       </c>
     </row>
     <row r="18">
@@ -1823,19 +1823,19 @@
         <v>7763</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4756</v>
+        <v>4762</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10107</v>
+        <v>10188</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.7181750226236278</v>
+        <v>0.7181750226236275</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4399786046151423</v>
+        <v>0.4406008583767845</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9350099469087612</v>
+        <v>0.9425498412917512</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -1844,19 +1844,19 @@
         <v>7762</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4729</v>
+        <v>4650</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10423</v>
+        <v>10374</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6859725915318385</v>
+        <v>0.6859725915318383</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4179474398369066</v>
+        <v>0.4109251006734725</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.921104772848655</v>
+        <v>0.9167978820300706</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>3046</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>702</v>
+        <v>621</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6053</v>
+        <v>6047</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2818249773763725</v>
+        <v>0.2818249773763724</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06499005309123888</v>
+        <v>0.05745015870824869</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5600213953848576</v>
+        <v>0.5593991416232155</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1907,19 +1907,19 @@
         <v>3554</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>893</v>
+        <v>942</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6587</v>
+        <v>6666</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.3140274084681617</v>
+        <v>0.3140274084681616</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07889522715134512</v>
+        <v>0.08320211796992932</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5820525601630934</v>
+        <v>0.5890748993265276</v>
       </c>
     </row>
     <row r="21">
@@ -2011,19 +2011,19 @@
         <v>8730</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4703</v>
+        <v>4722</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15280</v>
+        <v>15650</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1280014271240324</v>
+        <v>0.1280014271240325</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06895801508824635</v>
+        <v>0.06923515605625745</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2240352116699997</v>
+        <v>0.2294678950273249</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -2032,19 +2032,19 @@
         <v>29028</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22666</v>
+        <v>22511</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35897</v>
+        <v>35989</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5261658762206326</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4108621732254649</v>
+        <v>0.4080388066153671</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6506844006877702</v>
+        <v>0.6523472263698137</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -2053,19 +2053,19 @@
         <v>37757</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28768</v>
+        <v>28759</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48923</v>
+        <v>49719</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3060501894468869</v>
+        <v>0.306050189446887</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2331857158195094</v>
+        <v>0.2331077342888032</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3965511463075528</v>
+        <v>0.4030053376582154</v>
       </c>
     </row>
     <row r="23">
@@ -2082,19 +2082,19 @@
         <v>59472</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52922</v>
+        <v>52552</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>63499</v>
+        <v>63480</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8719985728759676</v>
+        <v>0.8719985728759677</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7759647883300005</v>
+        <v>0.7705321049726749</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9310419849117536</v>
+        <v>0.9307648439437423</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>42</v>
@@ -2103,19 +2103,19 @@
         <v>26140</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>19271</v>
+        <v>19179</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>32502</v>
+        <v>32657</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4738341237793675</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3493155993122301</v>
+        <v>0.3476527736301859</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5891378267745352</v>
+        <v>0.5919611933846329</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>108</v>
@@ -2124,19 +2124,19 @@
         <v>85613</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>74447</v>
+        <v>73651</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>94602</v>
+        <v>94611</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.693949810553113</v>
+        <v>0.6939498105531131</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6034488536924473</v>
+        <v>0.5969946623417847</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7668142841804906</v>
+        <v>0.7668922657111968</v>
       </c>
     </row>
     <row r="24">
